--- a/data/trans_dic/P12C1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12C1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo)</t>
+          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo) (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,67 +546,85 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>51,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>53,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>70,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>35,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>62,56%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 18,53</t>
+          <t>8,54; 16,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 17,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,74; 18,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,6; 61,09</t>
+          <t>40,32; 68,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,19; 56,5</t>
+          <t>48,45; 59,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,67; 69,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,85; 41,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,17; 38,18</t>
+          <t>60,19; 78,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>37,15; 45,54</t>
+          <t>31,04; 38,92</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>55,37; 69,8</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>47,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,27%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>72,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>30,33%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>60,32%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,63; 16,35</t>
+          <t>8,88; 13,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 13,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,68; 17,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,04; 51,39</t>
+          <t>41,14; 54,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,46; 55,33</t>
+          <t>47,25; 55,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,1; 51,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,07; 33,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,42; 32,97</t>
+          <t>67,31; 77,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,7; 31,59</t>
+          <t>27,6; 32,98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>55,55; 64,34</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>28,77%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>70,29%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 21,21</t>
+          <t>12,53; 21,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 20,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 21,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,07; 49,76</t>
+          <t>55,46; 69,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,54; 44,97</t>
+          <t>36,78; 45,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,01; 37,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,06; 33,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,92; 31,86</t>
+          <t>72,71; 82,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,43; 28,01</t>
+          <t>25,9; 31,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>66,06; 74,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,69%</t>
+          <t>52,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>66,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>59,53%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,88; 14,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,05; 16,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,2; 51,22</t>
+          <t>46,75; 59,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,03; 50,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,8; 52,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,01; 33,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 32,66</t>
+          <t>61,0; 71,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,55; 33,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>55,37; 63,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,9%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>53,43%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>48,32%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>71,88%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30,95%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>62,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 15,14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49,43; 57,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>45,66; 50,86</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68,55; 74,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29,25; 32,95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>60,61; 65,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo) (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>88986</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>228855</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>483156</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>452550</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>572142</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>681404</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>62170; 120497</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>180391; 306388</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>435426; 530356</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>386337; 504138</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>505030; 633233</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>603093; 760356</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>476.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>179324</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>510348</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>765447</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>784123</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>944772</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1294471</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>143015; 224646</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>437793; 577747</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>710980; 828428</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>728119; 834588</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>859996; 1027417</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1191987; 1380704</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>173527</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>471979</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>692962</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>645506</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1209492</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>136106; 228200</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>459451; 574160</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>425596; 523829</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>648757; 732958</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>581139; 711733</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1136695; 1274706</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>574745</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>654364</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1229110</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>507607; 645002</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>597252; 704328</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1143261; 1312993</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>586.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>844.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1028.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1562.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>441837</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1830478</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1720582</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2583999</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2162419</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4414477</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>379241; 518787</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1693203; 1953479</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1625656; 1810804</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2464179; 2683595</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2043153; 2301784</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4255294; 4581944</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
